--- a/biology/Zoologie/Coyote_des_plaines/Coyote_des_plaines.xlsx
+++ b/biology/Zoologie/Coyote_des_plaines/Coyote_des_plaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coyote des plaines (Canis latrans latrans), aussi connu sous le nom de loup des broussailles, est une sous-espèce de coyote originaire des Prairies canadiennes du sud-est de l'Alberta, du sud de la Saskatchewan et de l'extrême sud-ouest du Manitoba. Sa population aux États-Unis se trouve dans le Montana, au Wyoming, au Colorado (à l'est des Rocheuses), au nord-est du Nouveau-Mexique, dans le Dakota du Nord (sauf pour le quart nord-est), dans le nord-ouest de l'Oklahoma et dans le nord de la Texas Panhandle. C'est la plus grande sous-espèce, avec une fourrure plutôt pâle ainsi que de grandes molaires et carnassières[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coyote des plaines (Canis latrans latrans), aussi connu sous le nom de loup des broussailles, est une sous-espèce de coyote originaire des Prairies canadiennes du sud-est de l'Alberta, du sud de la Saskatchewan et de l'extrême sud-ouest du Manitoba. Sa population aux États-Unis se trouve dans le Montana, au Wyoming, au Colorado (à l'est des Rocheuses), au nord-est du Nouveau-Mexique, dans le Dakota du Nord (sauf pour le quart nord-est), dans le nord-ouest de l'Oklahoma et dans le nord de la Texas Panhandle. C'est la plus grande sous-espèce, avec une fourrure plutôt pâle ainsi que de grandes molaires et carnassières.
 </t>
         </is>
       </c>
